--- a/train_cnn/egg_laying/manually_verified.xlsx
+++ b/train_cnn/egg_laying/manually_verified.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaver/Documents/GitHub/work-in-progress/work_in_progress/egg_laying/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaver/Documents/GitHub/work-in-progress/train_cnn/egg_laying/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3714,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW1120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A594" sqref="A574:XFD594"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4402,7 +4402,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4424,12 +4424,12 @@
         <v>21892</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4437,17 +4437,17 @@
         <v>26937</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>20518</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4475,12 +4475,12 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4497,17 +4497,17 @@
         <v>16734</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4529,11 +4529,8 @@
       <c r="G93">
         <v>18796</v>
       </c>
-      <c r="I93">
-        <v>27143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4547,7 +4544,7 @@
         <v>16750</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4567,7 +4564,7 @@
         <v>12938</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
